--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_58.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:7', 'D:7', 'D:7'], ['C', 'C', 'A:7', 'A:7']]</t>
-        </is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07954545454545454</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7'], ['Eb', 'Eb', 'C:7', 'C:7']]</t>
+          <t>[['B', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.01, 8.14), (3.48, 6.61)]</t>
+          <t>[['C', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(24.49, 34.94), (38.54, 45.67)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:09.480113', '0:00:15.412811')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:34.410000', '0:00:36.320000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2311827956989247</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1014285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.384, 18.837)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(99.445827, 105.343696)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:24.290000', '0:00:28.790000'), ('0:00:29.900000', '0:00:33.220000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:14.380000', '0:01:24.380000'), ('0:01:15.440000', '0:01:28.500000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F#:min', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(77.72, 88.0), (18.32, 25.82)]</t>
+          <t>[['Bb:min', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (58.4, 60.68)]</t>
+          <t>[('0:00:14.936802', '0:00:22.216258')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.350952', '0:00:28.787505')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_192</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1464346349745331</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'F#/5', 'B:min', 'D:7/5', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(43.12, 46.12), (283.3, 287.58)]</t>
+          <t>[['C', 'E', 'A:min', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.94, 32.6), (0.38, 7.84)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:51.613644', '0:00:55.886393')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:09.817165', '0:01:16.725102')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1671826625386997</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08791208791208791</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443), (43.100468, 51.657021)]</t>
+          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444), (19.151224, 25.606371)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:08.980000', '0:01:20.440000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:45.522000', '0:00:50.551000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(60.040123, 71.429511)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(97.77399, 102.557301)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58), (14.86, 17.32)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.62, 25.32)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(60.12, 63.42)]</t>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1897435897435897</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['C:maj/G', 'G:maj', 'A:min/C'], ['G:maj', 'G:maj', 'E:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'D:min7'], ['G', 'D/3', 'E:min'], ['C', 'C/7', 'A:min'], ['C', 'F/5', 'C']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(64.22, 66.98), (18.92, 24.12), (7.96, 14.54), (16.82, 23.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(63.837, 65.89), (253.215, 258.972), (9.227, 21.36), (5.121, 12.601)]</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_4</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj7'], ['Bb:min7', 'Eb:min7', 'Ab:7']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7'], ['F:min7', 'Bb:min7', 'Eb:7']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.64, 16.49), (11.34, 15.2)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(106.71, 112.34), (22.57, 28.19)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08125</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.2, 19.54)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(72.82, 84.38)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1199186991869919</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/4', 'A']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(50.046698, 55.352457)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.544, 8.638)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(57.777619, 61.864331)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_24</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06316489361702127</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb:7', 'Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb:7', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(38.56, 45.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(78.69, 83.15)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
